--- a/papers/coalition-journal-extension/charts/task_qos_opt.xlsx
+++ b/papers/coalition-journal-extension/charts/task_qos_opt.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -99,154 +95,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.60744285714285717</c:v>
+                  <c:v>0.7574428571428572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6094142857142858</c:v>
+                  <c:v>0.75941428571428582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61150000000000004</c:v>
+                  <c:v>0.76150000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61352857142857153</c:v>
+                  <c:v>0.76352857142857156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61570000000000003</c:v>
+                  <c:v>0.76570000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61772857142857152</c:v>
+                  <c:v>0.76772857142857154</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61990000000000001</c:v>
+                  <c:v>0.76990000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62195714285714299</c:v>
+                  <c:v>0.77195714285714301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62407142857142872</c:v>
+                  <c:v>0.77407142857142874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62621428571428572</c:v>
+                  <c:v>0.77621428571428575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62827142857142859</c:v>
+                  <c:v>0.77827142857142861</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6304142857142857</c:v>
+                  <c:v>0.78041428571428573</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63244285714285708</c:v>
+                  <c:v>0.78244285714285711</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63444285714285731</c:v>
+                  <c:v>0.78444285714285733</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.63650000000000007</c:v>
+                  <c:v>0.78650000000000009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.63864285714285707</c:v>
+                  <c:v>0.78864285714285709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.64067142857142856</c:v>
+                  <c:v>0.79067142857142858</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.64230457142857156</c:v>
+                  <c:v>0.79230457142857158</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64382228571428579</c:v>
+                  <c:v>0.79382228571428581</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64541314285714291</c:v>
+                  <c:v>0.79541314285714293</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.64698571428571439</c:v>
+                  <c:v>0.79698571428571441</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6485765714285715</c:v>
+                  <c:v>0.79857657142857152</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.65014914285714287</c:v>
+                  <c:v>0.80014914285714289</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.65168514285714296</c:v>
+                  <c:v>0.80168514285714298</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65323942857142869</c:v>
+                  <c:v>0.80323942857142872</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.65481200000000006</c:v>
+                  <c:v>0.80481200000000008</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65642114285714281</c:v>
+                  <c:v>0.80642114285714284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65795714285714291</c:v>
+                  <c:v>0.80795714285714293</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.65951142857142864</c:v>
+                  <c:v>0.80951142857142866</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.66106571428571437</c:v>
+                  <c:v>0.81106571428571439</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.66263828571428585</c:v>
+                  <c:v>0.81263828571428587</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.66426571428571435</c:v>
+                  <c:v>0.81426571428571437</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.66583828571428572</c:v>
+                  <c:v>0.81583828571428574</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.66741085714285731</c:v>
+                  <c:v>0.81741085714285733</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.66896514285714292</c:v>
+                  <c:v>0.81896514285714295</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6707388571428573</c:v>
+                  <c:v>0.82073885714285733</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.67258571428571434</c:v>
+                  <c:v>0.82258571428571436</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.67441428571428585</c:v>
+                  <c:v>0.82441428571428588</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.67551142857142865</c:v>
+                  <c:v>0.82551142857142867</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.67644400000000016</c:v>
+                  <c:v>0.82644400000000018</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.6773582857142858</c:v>
+                  <c:v>0.82735828571428582</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.67827257142857145</c:v>
+                  <c:v>0.82827257142857147</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.67916857142857145</c:v>
+                  <c:v>0.82916857142857148</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.67994800000000011</c:v>
+                  <c:v>0.82994800000000013</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.6801788571428572</c:v>
+                  <c:v>0.83017885714285722</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.6804097142857144</c:v>
+                  <c:v>0.83040971428571442</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.68063828571428586</c:v>
+                  <c:v>0.83063828571428588</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.68087142857142868</c:v>
+                  <c:v>0.83087142857142871</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.68110228571428577</c:v>
+                  <c:v>0.83110228571428579</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.68151810285714232</c:v>
+                  <c:v>0.83151810285714234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -266,154 +262,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.6011333333333333</c:v>
+                  <c:v>0.75113333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60228333333333328</c:v>
+                  <c:v>0.7522833333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60349999999999993</c:v>
+                  <c:v>0.75349999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60468333333333335</c:v>
+                  <c:v>0.75468333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60594999999999999</c:v>
+                  <c:v>0.75595000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60713333333333319</c:v>
+                  <c:v>0.75713333333333321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60839999999999994</c:v>
+                  <c:v>0.75839999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60960000000000003</c:v>
+                  <c:v>0.75960000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61083333333333323</c:v>
+                  <c:v>0.76083333333333325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61208333333333331</c:v>
+                  <c:v>0.76208333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61328333333333329</c:v>
+                  <c:v>0.76328333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61453333333333326</c:v>
+                  <c:v>0.76453333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61571666666666658</c:v>
+                  <c:v>0.7657166666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61688333333333334</c:v>
+                  <c:v>0.76688333333333336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.61808333333333332</c:v>
+                  <c:v>0.76808333333333334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.61933333333333329</c:v>
+                  <c:v>0.76933333333333331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.62051666666666661</c:v>
+                  <c:v>0.77051666666666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.62173333333333325</c:v>
+                  <c:v>0.77173333333333327</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.62311666666666665</c:v>
+                  <c:v>0.77311666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6245666666666666</c:v>
+                  <c:v>0.77456666666666663</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.626</c:v>
+                  <c:v>0.77600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.62744999999999995</c:v>
+                  <c:v>0.77744999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.62888333333333324</c:v>
+                  <c:v>0.77888333333333326</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.63028333333333331</c:v>
+                  <c:v>0.78028333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.63170000000000004</c:v>
+                  <c:v>0.78170000000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.63313333333333321</c:v>
+                  <c:v>0.78313333333333324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.63459999999999994</c:v>
+                  <c:v>0.78459999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6359999999999999</c:v>
+                  <c:v>0.78599999999999992</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.63741666666666674</c:v>
+                  <c:v>0.78741666666666676</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.63883333333333325</c:v>
+                  <c:v>0.78883333333333328</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.64026666666666665</c:v>
+                  <c:v>0.79026666666666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.64174999999999993</c:v>
+                  <c:v>0.79174999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.64318333333333333</c:v>
+                  <c:v>0.79318333333333335</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.64461666666666662</c:v>
+                  <c:v>0.79461666666666664</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.64603333333333324</c:v>
+                  <c:v>0.79603333333333326</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.64764999999999995</c:v>
+                  <c:v>0.79764999999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.64933333333333321</c:v>
+                  <c:v>0.79933333333333323</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.65100000000000002</c:v>
+                  <c:v>0.80100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.65266666666666651</c:v>
+                  <c:v>0.80266666666666653</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.65436666666666676</c:v>
+                  <c:v>0.80436666666666679</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.65603333333333336</c:v>
+                  <c:v>0.80603333333333338</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.65770000000000006</c:v>
+                  <c:v>0.80770000000000008</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.65933333333333333</c:v>
+                  <c:v>0.80933333333333335</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.66101666666666659</c:v>
+                  <c:v>0.81101666666666661</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.66270000000000007</c:v>
+                  <c:v>0.81270000000000009</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.66438333333333333</c:v>
+                  <c:v>0.81438333333333335</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.66604999999999992</c:v>
+                  <c:v>0.81604999999999994</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.66774999999999995</c:v>
+                  <c:v>0.81774999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.66843333333333299</c:v>
+                  <c:v>0.81843333333333301</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.66913333333333302</c:v>
+                  <c:v>0.81913333333333305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,154 +429,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.60056666666666669</c:v>
+                  <c:v>0.75056666666666672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60114166666666669</c:v>
+                  <c:v>0.75114166666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60175000000000001</c:v>
+                  <c:v>0.75175000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60234166666666666</c:v>
+                  <c:v>0.75234166666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60297500000000004</c:v>
+                  <c:v>0.75297500000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60356666666666658</c:v>
+                  <c:v>0.75356666666666661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60419999999999996</c:v>
+                  <c:v>0.75419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6048</c:v>
+                  <c:v>0.75480000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6054166666666666</c:v>
+                  <c:v>0.75541666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60604166666666659</c:v>
+                  <c:v>0.75604166666666661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60664166666666663</c:v>
+                  <c:v>0.75664166666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60726666666666662</c:v>
+                  <c:v>0.75726666666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60785833333333328</c:v>
+                  <c:v>0.7578583333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60844166666666666</c:v>
+                  <c:v>0.75844166666666668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6090416666666667</c:v>
+                  <c:v>0.75904166666666673</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.60966666666666658</c:v>
+                  <c:v>0.7596666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.61025833333333335</c:v>
+                  <c:v>0.76025833333333337</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.61086666666666667</c:v>
+                  <c:v>0.76086666666666669</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.61155833333333331</c:v>
+                  <c:v>0.76155833333333334</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61228333333333329</c:v>
+                  <c:v>0.76228333333333331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.61299999999999999</c:v>
+                  <c:v>0.76300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.61372499999999997</c:v>
+                  <c:v>0.76372499999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.61444166666666655</c:v>
+                  <c:v>0.76444166666666657</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6151416666666667</c:v>
+                  <c:v>0.76514166666666672</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.61585000000000001</c:v>
+                  <c:v>0.76585000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6165666666666666</c:v>
+                  <c:v>0.76656666666666662</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.61729999999999996</c:v>
+                  <c:v>0.76729999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.61799999999999988</c:v>
+                  <c:v>0.7679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.61870833333333342</c:v>
+                  <c:v>0.76870833333333344</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.61941666666666662</c:v>
+                  <c:v>0.76941666666666664</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.62013333333333331</c:v>
+                  <c:v>0.77013333333333334</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.62087499999999995</c:v>
+                  <c:v>0.77087499999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.62159166666666665</c:v>
+                  <c:v>0.77159166666666668</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.62230833333333324</c:v>
+                  <c:v>0.77230833333333326</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.62301666666666655</c:v>
+                  <c:v>0.77301666666666657</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.62382499999999996</c:v>
+                  <c:v>0.77382499999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.62466666666666659</c:v>
+                  <c:v>0.77466666666666661</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.62549999999999994</c:v>
+                  <c:v>0.77549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.62633333333333319</c:v>
+                  <c:v>0.77633333333333321</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.62718333333333343</c:v>
+                  <c:v>0.77718333333333345</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.62801666666666667</c:v>
+                  <c:v>0.77801666666666669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.62885000000000002</c:v>
+                  <c:v>0.77885000000000004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.6296666666666666</c:v>
+                  <c:v>0.77966666666666662</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.63050833333333323</c:v>
+                  <c:v>0.78050833333333325</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.63135000000000008</c:v>
+                  <c:v>0.7813500000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.63219166666666671</c:v>
+                  <c:v>0.78219166666666673</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.63302499999999995</c:v>
+                  <c:v>0.78302499999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.63387499999999997</c:v>
+                  <c:v>0.78387499999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.6347166666666666</c:v>
+                  <c:v>0.78471666666666662</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.63556666666666661</c:v>
+                  <c:v>0.78556666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,154 +596,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.59480952380952379</c:v>
+                  <c:v>0.74480952380952381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59563095238095232</c:v>
+                  <c:v>0.74563095238095234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59649999999999992</c:v>
+                  <c:v>0.74649999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5973452380952381</c:v>
+                  <c:v>0.74734523809523812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59824999999999995</c:v>
+                  <c:v>0.74824999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59909523809523801</c:v>
+                  <c:v>0.74909523809523804</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60085714285714287</c:v>
+                  <c:v>0.75085714285714289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60173809523809518</c:v>
+                  <c:v>0.75173809523809521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60263095238095232</c:v>
+                  <c:v>0.75263095238095234</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60348809523809521</c:v>
+                  <c:v>0.75348809523809523</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60438095238095235</c:v>
+                  <c:v>0.75438095238095237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60522619047619042</c:v>
+                  <c:v>0.75522619047619044</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60605952380952377</c:v>
+                  <c:v>0.75605952380952379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.60691666666666666</c:v>
+                  <c:v>0.75691666666666668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6078095238095238</c:v>
+                  <c:v>0.75780952380952382</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.60865476190476187</c:v>
+                  <c:v>0.75865476190476189</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.60952380952380947</c:v>
+                  <c:v>0.75952380952380949</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.61051190476190476</c:v>
+                  <c:v>0.76051190476190478</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61154761904761901</c:v>
+                  <c:v>0.76154761904761903</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.61257142857142854</c:v>
+                  <c:v>0.76257142857142857</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6136071428571428</c:v>
+                  <c:v>0.76360714285714282</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.61463095238095233</c:v>
+                  <c:v>0.76463095238095236</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.61563095238095233</c:v>
+                  <c:v>0.76563095238095236</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.61664285714285716</c:v>
+                  <c:v>0.76664285714285718</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.61766666666666659</c:v>
+                  <c:v>0.76766666666666661</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.61871428571428566</c:v>
+                  <c:v>0.76871428571428568</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.61971428571428566</c:v>
+                  <c:v>0.76971428571428568</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.62072619047619049</c:v>
+                  <c:v>0.77072619047619051</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6217380952380952</c:v>
+                  <c:v>0.77173809523809522</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.62276190476190474</c:v>
+                  <c:v>0.77276190476190476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.62382142857142853</c:v>
+                  <c:v>0.77382142857142855</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.62484523809523806</c:v>
+                  <c:v>0.77484523809523809</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6258690476190476</c:v>
+                  <c:v>0.77586904761904762</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.62688095238095232</c:v>
+                  <c:v>0.77688095238095234</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.62803571428571425</c:v>
+                  <c:v>0.77803571428571427</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.62923809523809515</c:v>
+                  <c:v>0.77923809523809517</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.63042857142857145</c:v>
+                  <c:v>0.78042857142857147</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.63161904761904752</c:v>
+                  <c:v>0.78161904761904755</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.63283333333333336</c:v>
+                  <c:v>0.78283333333333338</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.63402380952380955</c:v>
+                  <c:v>0.78402380952380957</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.63521428571428573</c:v>
+                  <c:v>0.78521428571428575</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.63638095238095238</c:v>
+                  <c:v>0.7863809523809524</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.63758333333333328</c:v>
+                  <c:v>0.7875833333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.63878571428571429</c:v>
+                  <c:v>0.78878571428571431</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.63998809523809519</c:v>
+                  <c:v>0.78998809523809521</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.64117857142857138</c:v>
+                  <c:v>0.7911785714285714</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.6423928571428571</c:v>
+                  <c:v>0.79239285714285712</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.64359523809523811</c:v>
+                  <c:v>0.79359523809523813</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.64480952380952383</c:v>
+                  <c:v>0.79480952380952385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,154 +763,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.59030357142857137</c:v>
+                  <c:v>0.74030357142857139</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5906116071428571</c:v>
+                  <c:v>0.74061160714285712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59093749999999989</c:v>
+                  <c:v>0.74093749999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59125446428571427</c:v>
+                  <c:v>0.74125446428571429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59159374999999992</c:v>
+                  <c:v>0.74159374999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59191071428571429</c:v>
+                  <c:v>0.74191071428571431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59224999999999994</c:v>
+                  <c:v>0.74224999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59257142857142853</c:v>
+                  <c:v>0.74257142857142855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59290178571428576</c:v>
+                  <c:v>0.74290178571428578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59323660714285709</c:v>
+                  <c:v>0.74323660714285711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59355803571428567</c:v>
+                  <c:v>0.74355803571428569</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59389285714285711</c:v>
+                  <c:v>0.74389285714285713</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59420982142857137</c:v>
+                  <c:v>0.74420982142857139</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59452232142857131</c:v>
+                  <c:v>0.74452232142857133</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59484374999999989</c:v>
+                  <c:v>0.74484374999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59517857142857133</c:v>
+                  <c:v>0.74517857142857136</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59549553571428571</c:v>
+                  <c:v>0.74549553571428573</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5958214285714285</c:v>
+                  <c:v>0.74582142857142852</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5961919642857143</c:v>
+                  <c:v>0.74619196428571433</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59658035714285718</c:v>
+                  <c:v>0.7465803571428572</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.59696428571428561</c:v>
+                  <c:v>0.74696428571428564</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.59735267857142849</c:v>
+                  <c:v>0.74735267857142851</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.59773660714285715</c:v>
+                  <c:v>0.74773660714285717</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.59811160714285716</c:v>
+                  <c:v>0.74811160714285718</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.59849107142857139</c:v>
+                  <c:v>0.74849107142857141</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.59887499999999994</c:v>
+                  <c:v>0.74887499999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.59926785714285713</c:v>
+                  <c:v>0.74926785714285715</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.59964285714285714</c:v>
+                  <c:v>0.74964285714285717</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.60002232142857137</c:v>
+                  <c:v>0.75002232142857139</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6004017857142856</c:v>
+                  <c:v>0.75040178571428562</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.60078571428571426</c:v>
+                  <c:v>0.75078571428571428</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.60118303571428566</c:v>
+                  <c:v>0.75118303571428569</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.60156696428571421</c:v>
+                  <c:v>0.75156696428571423</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.60195089285714287</c:v>
+                  <c:v>0.75195089285714289</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6023303571428571</c:v>
+                  <c:v>0.75233035714285712</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.60276339285714275</c:v>
+                  <c:v>0.75276339285714278</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.6032142857142857</c:v>
+                  <c:v>0.75321428571428573</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.60366071428571422</c:v>
+                  <c:v>0.75366071428571424</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.60392857142857137</c:v>
+                  <c:v>0.75392857142857139</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.60415624999999995</c:v>
+                  <c:v>0.75415624999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.60437946428571432</c:v>
+                  <c:v>0.75437946428571434</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.60460267857142846</c:v>
+                  <c:v>0.75460267857142849</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.60482142857142851</c:v>
+                  <c:v>0.75482142857142853</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.60501171874999993</c:v>
+                  <c:v>0.75501171874999995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.60506808035714288</c:v>
+                  <c:v>0.7550680803571429</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.60512444196428561</c:v>
+                  <c:v>0.75512444196428563</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.60518024553571426</c:v>
+                  <c:v>0.75518024553571428</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.60523716517857129</c:v>
+                  <c:v>0.75523716517857131</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.60529352678571424</c:v>
+                  <c:v>0.75529352678571426</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.60535044642857139</c:v>
+                  <c:v>0.75535044642857141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,11 +927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46863872"/>
-        <c:axId val="46865408"/>
+        <c:axId val="101363712"/>
+        <c:axId val="101365248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46863872"/>
+        <c:axId val="101363712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46865408"/>
+        <c:crossAx val="101365248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -952,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46865408"/>
+        <c:axId val="101365248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46863872"/>
+        <c:crossAx val="101363712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1850,11 +1846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44831872"/>
-        <c:axId val="44833408"/>
+        <c:axId val="101442304"/>
+        <c:axId val="101443840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44831872"/>
+        <c:axId val="101442304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +1859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44833408"/>
+        <c:crossAx val="101443840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1871,7 +1867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44833408"/>
+        <c:axId val="101443840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,14 +1878,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44831872"/>
+        <c:crossAx val="101442304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2264,859 +2259,859 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G1" sqref="G1:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.60744285714285717</v>
+        <v>0.7574428571428572</v>
       </c>
       <c r="B1">
-        <v>0.6011333333333333</v>
+        <v>0.75113333333333332</v>
       </c>
       <c r="C1">
-        <v>0.60056666666666669</v>
+        <v>0.75056666666666672</v>
       </c>
       <c r="D1">
-        <v>0.59480952380952379</v>
+        <v>0.74480952380952381</v>
       </c>
       <c r="E1">
-        <v>0.59030357142857137</v>
+        <v>0.74030357142857139</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.6094142857142858</v>
+        <v>0.75941428571428582</v>
       </c>
       <c r="B2">
-        <v>0.60228333333333328</v>
+        <v>0.7522833333333333</v>
       </c>
       <c r="C2">
-        <v>0.60114166666666669</v>
+        <v>0.75114166666666671</v>
       </c>
       <c r="D2">
-        <v>0.59563095238095232</v>
+        <v>0.74563095238095234</v>
       </c>
       <c r="E2">
-        <v>0.5906116071428571</v>
+        <v>0.74061160714285712</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.61150000000000004</v>
+        <v>0.76150000000000007</v>
       </c>
       <c r="B3">
-        <v>0.60349999999999993</v>
+        <v>0.75349999999999995</v>
       </c>
       <c r="C3">
-        <v>0.60175000000000001</v>
+        <v>0.75175000000000003</v>
       </c>
       <c r="D3">
-        <v>0.59649999999999992</v>
+        <v>0.74649999999999994</v>
       </c>
       <c r="E3">
-        <v>0.59093749999999989</v>
+        <v>0.74093749999999992</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.61352857142857153</v>
+        <v>0.76352857142857156</v>
       </c>
       <c r="B4">
-        <v>0.60468333333333335</v>
+        <v>0.75468333333333337</v>
       </c>
       <c r="C4">
-        <v>0.60234166666666666</v>
+        <v>0.75234166666666669</v>
       </c>
       <c r="D4">
-        <v>0.5973452380952381</v>
+        <v>0.74734523809523812</v>
       </c>
       <c r="E4">
-        <v>0.59125446428571427</v>
+        <v>0.74125446428571429</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.61570000000000003</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="B5">
-        <v>0.60594999999999999</v>
+        <v>0.75595000000000001</v>
       </c>
       <c r="C5">
-        <v>0.60297500000000004</v>
+        <v>0.75297500000000006</v>
       </c>
       <c r="D5">
-        <v>0.59824999999999995</v>
+        <v>0.74824999999999997</v>
       </c>
       <c r="E5">
-        <v>0.59159374999999992</v>
+        <v>0.74159374999999994</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.61772857142857152</v>
+        <v>0.76772857142857154</v>
       </c>
       <c r="B6">
-        <v>0.60713333333333319</v>
+        <v>0.75713333333333321</v>
       </c>
       <c r="C6">
-        <v>0.60356666666666658</v>
+        <v>0.75356666666666661</v>
       </c>
       <c r="D6">
-        <v>0.59909523809523801</v>
+        <v>0.74909523809523804</v>
       </c>
       <c r="E6">
-        <v>0.59191071428571429</v>
+        <v>0.74191071428571431</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.61990000000000001</v>
+        <v>0.76990000000000003</v>
       </c>
       <c r="B7">
-        <v>0.60839999999999994</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="C7">
-        <v>0.60419999999999996</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E7">
-        <v>0.59224999999999994</v>
+        <v>0.74224999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.62195714285714299</v>
+        <v>0.77195714285714301</v>
       </c>
       <c r="B8">
-        <v>0.60960000000000003</v>
+        <v>0.75960000000000005</v>
       </c>
       <c r="C8">
-        <v>0.6048</v>
+        <v>0.75480000000000003</v>
       </c>
       <c r="D8">
-        <v>0.60085714285714287</v>
+        <v>0.75085714285714289</v>
       </c>
       <c r="E8">
-        <v>0.59257142857142853</v>
+        <v>0.74257142857142855</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.62407142857142872</v>
+        <v>0.77407142857142874</v>
       </c>
       <c r="B9">
-        <v>0.61083333333333323</v>
+        <v>0.76083333333333325</v>
       </c>
       <c r="C9">
-        <v>0.6054166666666666</v>
+        <v>0.75541666666666663</v>
       </c>
       <c r="D9">
-        <v>0.60173809523809518</v>
+        <v>0.75173809523809521</v>
       </c>
       <c r="E9">
-        <v>0.59290178571428576</v>
+        <v>0.74290178571428578</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.62621428571428572</v>
+        <v>0.77621428571428575</v>
       </c>
       <c r="B10">
-        <v>0.61208333333333331</v>
+        <v>0.76208333333333333</v>
       </c>
       <c r="C10">
-        <v>0.60604166666666659</v>
+        <v>0.75604166666666661</v>
       </c>
       <c r="D10">
-        <v>0.60263095238095232</v>
+        <v>0.75263095238095234</v>
       </c>
       <c r="E10">
-        <v>0.59323660714285709</v>
+        <v>0.74323660714285711</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.62827142857142859</v>
+        <v>0.77827142857142861</v>
       </c>
       <c r="B11">
-        <v>0.61328333333333329</v>
+        <v>0.76328333333333331</v>
       </c>
       <c r="C11">
-        <v>0.60664166666666663</v>
+        <v>0.75664166666666666</v>
       </c>
       <c r="D11">
-        <v>0.60348809523809521</v>
+        <v>0.75348809523809523</v>
       </c>
       <c r="E11">
-        <v>0.59355803571428567</v>
+        <v>0.74355803571428569</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.6304142857142857</v>
+        <v>0.78041428571428573</v>
       </c>
       <c r="B12">
-        <v>0.61453333333333326</v>
+        <v>0.76453333333333329</v>
       </c>
       <c r="C12">
-        <v>0.60726666666666662</v>
+        <v>0.75726666666666664</v>
       </c>
       <c r="D12">
-        <v>0.60438095238095235</v>
+        <v>0.75438095238095237</v>
       </c>
       <c r="E12">
-        <v>0.59389285714285711</v>
+        <v>0.74389285714285713</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.63244285714285708</v>
+        <v>0.78244285714285711</v>
       </c>
       <c r="B13">
-        <v>0.61571666666666658</v>
+        <v>0.7657166666666666</v>
       </c>
       <c r="C13">
-        <v>0.60785833333333328</v>
+        <v>0.7578583333333333</v>
       </c>
       <c r="D13">
-        <v>0.60522619047619042</v>
+        <v>0.75522619047619044</v>
       </c>
       <c r="E13">
-        <v>0.59420982142857137</v>
+        <v>0.74420982142857139</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.63444285714285731</v>
+        <v>0.78444285714285733</v>
       </c>
       <c r="B14">
-        <v>0.61688333333333334</v>
+        <v>0.76688333333333336</v>
       </c>
       <c r="C14">
-        <v>0.60844166666666666</v>
+        <v>0.75844166666666668</v>
       </c>
       <c r="D14">
-        <v>0.60605952380952377</v>
+        <v>0.75605952380952379</v>
       </c>
       <c r="E14">
-        <v>0.59452232142857131</v>
+        <v>0.74452232142857133</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.63650000000000007</v>
+        <v>0.78650000000000009</v>
       </c>
       <c r="B15">
-        <v>0.61808333333333332</v>
+        <v>0.76808333333333334</v>
       </c>
       <c r="C15">
-        <v>0.6090416666666667</v>
+        <v>0.75904166666666673</v>
       </c>
       <c r="D15">
-        <v>0.60691666666666666</v>
+        <v>0.75691666666666668</v>
       </c>
       <c r="E15">
-        <v>0.59484374999999989</v>
+        <v>0.74484374999999992</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.63864285714285707</v>
+        <v>0.78864285714285709</v>
       </c>
       <c r="B16">
-        <v>0.61933333333333329</v>
+        <v>0.76933333333333331</v>
       </c>
       <c r="C16">
-        <v>0.60966666666666658</v>
+        <v>0.7596666666666666</v>
       </c>
       <c r="D16">
-        <v>0.6078095238095238</v>
+        <v>0.75780952380952382</v>
       </c>
       <c r="E16">
-        <v>0.59517857142857133</v>
+        <v>0.74517857142857136</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.64067142857142856</v>
+        <v>0.79067142857142858</v>
       </c>
       <c r="B17">
-        <v>0.62051666666666661</v>
+        <v>0.77051666666666663</v>
       </c>
       <c r="C17">
-        <v>0.61025833333333335</v>
+        <v>0.76025833333333337</v>
       </c>
       <c r="D17">
-        <v>0.60865476190476187</v>
+        <v>0.75865476190476189</v>
       </c>
       <c r="E17">
-        <v>0.59549553571428571</v>
+        <v>0.74549553571428573</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.64230457142857156</v>
+        <v>0.79230457142857158</v>
       </c>
       <c r="B18">
-        <v>0.62173333333333325</v>
+        <v>0.77173333333333327</v>
       </c>
       <c r="C18">
-        <v>0.61086666666666667</v>
+        <v>0.76086666666666669</v>
       </c>
       <c r="D18">
-        <v>0.60952380952380947</v>
+        <v>0.75952380952380949</v>
       </c>
       <c r="E18">
-        <v>0.5958214285714285</v>
+        <v>0.74582142857142852</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.64382228571428579</v>
+        <v>0.79382228571428581</v>
       </c>
       <c r="B19">
-        <v>0.62311666666666665</v>
+        <v>0.77311666666666667</v>
       </c>
       <c r="C19">
-        <v>0.61155833333333331</v>
+        <v>0.76155833333333334</v>
       </c>
       <c r="D19">
-        <v>0.61051190476190476</v>
+        <v>0.76051190476190478</v>
       </c>
       <c r="E19">
-        <v>0.5961919642857143</v>
+        <v>0.74619196428571433</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.64541314285714291</v>
+        <v>0.79541314285714293</v>
       </c>
       <c r="B20">
-        <v>0.6245666666666666</v>
+        <v>0.77456666666666663</v>
       </c>
       <c r="C20">
-        <v>0.61228333333333329</v>
+        <v>0.76228333333333331</v>
       </c>
       <c r="D20">
-        <v>0.61154761904761901</v>
+        <v>0.76154761904761903</v>
       </c>
       <c r="E20">
-        <v>0.59658035714285718</v>
+        <v>0.7465803571428572</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.64698571428571439</v>
+        <v>0.79698571428571441</v>
       </c>
       <c r="B21">
-        <v>0.626</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="C21">
-        <v>0.61299999999999999</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="D21">
-        <v>0.61257142857142854</v>
+        <v>0.76257142857142857</v>
       </c>
       <c r="E21">
-        <v>0.59696428571428561</v>
+        <v>0.74696428571428564</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.6485765714285715</v>
+        <v>0.79857657142857152</v>
       </c>
       <c r="B22">
-        <v>0.62744999999999995</v>
+        <v>0.77744999999999997</v>
       </c>
       <c r="C22">
-        <v>0.61372499999999997</v>
+        <v>0.76372499999999999</v>
       </c>
       <c r="D22">
-        <v>0.6136071428571428</v>
+        <v>0.76360714285714282</v>
       </c>
       <c r="E22">
-        <v>0.59735267857142849</v>
+        <v>0.74735267857142851</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.65014914285714287</v>
+        <v>0.80014914285714289</v>
       </c>
       <c r="B23">
-        <v>0.62888333333333324</v>
+        <v>0.77888333333333326</v>
       </c>
       <c r="C23">
-        <v>0.61444166666666655</v>
+        <v>0.76444166666666657</v>
       </c>
       <c r="D23">
-        <v>0.61463095238095233</v>
+        <v>0.76463095238095236</v>
       </c>
       <c r="E23">
-        <v>0.59773660714285715</v>
+        <v>0.74773660714285717</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.65168514285714296</v>
+        <v>0.80168514285714298</v>
       </c>
       <c r="B24">
-        <v>0.63028333333333331</v>
+        <v>0.78028333333333333</v>
       </c>
       <c r="C24">
-        <v>0.6151416666666667</v>
+        <v>0.76514166666666672</v>
       </c>
       <c r="D24">
-        <v>0.61563095238095233</v>
+        <v>0.76563095238095236</v>
       </c>
       <c r="E24">
-        <v>0.59811160714285716</v>
+        <v>0.74811160714285718</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.65323942857142869</v>
+        <v>0.80323942857142872</v>
       </c>
       <c r="B25">
-        <v>0.63170000000000004</v>
+        <v>0.78170000000000006</v>
       </c>
       <c r="C25">
-        <v>0.61585000000000001</v>
+        <v>0.76585000000000003</v>
       </c>
       <c r="D25">
-        <v>0.61664285714285716</v>
+        <v>0.76664285714285718</v>
       </c>
       <c r="E25">
-        <v>0.59849107142857139</v>
+        <v>0.74849107142857141</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.65481200000000006</v>
+        <v>0.80481200000000008</v>
       </c>
       <c r="B26">
-        <v>0.63313333333333321</v>
+        <v>0.78313333333333324</v>
       </c>
       <c r="C26">
-        <v>0.6165666666666666</v>
+        <v>0.76656666666666662</v>
       </c>
       <c r="D26">
-        <v>0.61766666666666659</v>
+        <v>0.76766666666666661</v>
       </c>
       <c r="E26">
-        <v>0.59887499999999994</v>
+        <v>0.74887499999999996</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.65642114285714281</v>
+        <v>0.80642114285714284</v>
       </c>
       <c r="B27">
-        <v>0.63459999999999994</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="C27">
-        <v>0.61729999999999996</v>
+        <v>0.76729999999999998</v>
       </c>
       <c r="D27">
-        <v>0.61871428571428566</v>
+        <v>0.76871428571428568</v>
       </c>
       <c r="E27">
-        <v>0.59926785714285713</v>
+        <v>0.74926785714285715</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.65795714285714291</v>
+        <v>0.80795714285714293</v>
       </c>
       <c r="B28">
-        <v>0.6359999999999999</v>
+        <v>0.78599999999999992</v>
       </c>
       <c r="C28">
-        <v>0.61799999999999988</v>
+        <v>0.7679999999999999</v>
       </c>
       <c r="D28">
-        <v>0.61971428571428566</v>
+        <v>0.76971428571428568</v>
       </c>
       <c r="E28">
-        <v>0.59964285714285714</v>
+        <v>0.74964285714285717</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.65951142857142864</v>
+        <v>0.80951142857142866</v>
       </c>
       <c r="B29">
-        <v>0.63741666666666674</v>
+        <v>0.78741666666666676</v>
       </c>
       <c r="C29">
-        <v>0.61870833333333342</v>
+        <v>0.76870833333333344</v>
       </c>
       <c r="D29">
-        <v>0.62072619047619049</v>
+        <v>0.77072619047619051</v>
       </c>
       <c r="E29">
-        <v>0.60002232142857137</v>
+        <v>0.75002232142857139</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.66106571428571437</v>
+        <v>0.81106571428571439</v>
       </c>
       <c r="B30">
-        <v>0.63883333333333325</v>
+        <v>0.78883333333333328</v>
       </c>
       <c r="C30">
-        <v>0.61941666666666662</v>
+        <v>0.76941666666666664</v>
       </c>
       <c r="D30">
-        <v>0.6217380952380952</v>
+        <v>0.77173809523809522</v>
       </c>
       <c r="E30">
-        <v>0.6004017857142856</v>
+        <v>0.75040178571428562</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.66263828571428585</v>
+        <v>0.81263828571428587</v>
       </c>
       <c r="B31">
-        <v>0.64026666666666665</v>
+        <v>0.79026666666666667</v>
       </c>
       <c r="C31">
-        <v>0.62013333333333331</v>
+        <v>0.77013333333333334</v>
       </c>
       <c r="D31">
-        <v>0.62276190476190474</v>
+        <v>0.77276190476190476</v>
       </c>
       <c r="E31">
-        <v>0.60078571428571426</v>
+        <v>0.75078571428571428</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.66426571428571435</v>
+        <v>0.81426571428571437</v>
       </c>
       <c r="B32">
-        <v>0.64174999999999993</v>
+        <v>0.79174999999999995</v>
       </c>
       <c r="C32">
-        <v>0.62087499999999995</v>
+        <v>0.77087499999999998</v>
       </c>
       <c r="D32">
-        <v>0.62382142857142853</v>
+        <v>0.77382142857142855</v>
       </c>
       <c r="E32">
-        <v>0.60118303571428566</v>
+        <v>0.75118303571428569</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.66583828571428572</v>
+        <v>0.81583828571428574</v>
       </c>
       <c r="B33">
-        <v>0.64318333333333333</v>
+        <v>0.79318333333333335</v>
       </c>
       <c r="C33">
-        <v>0.62159166666666665</v>
+        <v>0.77159166666666668</v>
       </c>
       <c r="D33">
-        <v>0.62484523809523806</v>
+        <v>0.77484523809523809</v>
       </c>
       <c r="E33">
-        <v>0.60156696428571421</v>
+        <v>0.75156696428571423</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.66741085714285731</v>
+        <v>0.81741085714285733</v>
       </c>
       <c r="B34">
-        <v>0.64461666666666662</v>
+        <v>0.79461666666666664</v>
       </c>
       <c r="C34">
-        <v>0.62230833333333324</v>
+        <v>0.77230833333333326</v>
       </c>
       <c r="D34">
-        <v>0.6258690476190476</v>
+        <v>0.77586904761904762</v>
       </c>
       <c r="E34">
-        <v>0.60195089285714287</v>
+        <v>0.75195089285714289</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.66896514285714292</v>
+        <v>0.81896514285714295</v>
       </c>
       <c r="B35">
-        <v>0.64603333333333324</v>
+        <v>0.79603333333333326</v>
       </c>
       <c r="C35">
-        <v>0.62301666666666655</v>
+        <v>0.77301666666666657</v>
       </c>
       <c r="D35">
-        <v>0.62688095238095232</v>
+        <v>0.77688095238095234</v>
       </c>
       <c r="E35">
-        <v>0.6023303571428571</v>
+        <v>0.75233035714285712</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.6707388571428573</v>
+        <v>0.82073885714285733</v>
       </c>
       <c r="B36">
-        <v>0.64764999999999995</v>
+        <v>0.79764999999999997</v>
       </c>
       <c r="C36">
-        <v>0.62382499999999996</v>
+        <v>0.77382499999999999</v>
       </c>
       <c r="D36">
-        <v>0.62803571428571425</v>
+        <v>0.77803571428571427</v>
       </c>
       <c r="E36">
-        <v>0.60276339285714275</v>
+        <v>0.75276339285714278</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.67258571428571434</v>
+        <v>0.82258571428571436</v>
       </c>
       <c r="B37">
-        <v>0.64933333333333321</v>
+        <v>0.79933333333333323</v>
       </c>
       <c r="C37">
-        <v>0.62466666666666659</v>
+        <v>0.77466666666666661</v>
       </c>
       <c r="D37">
-        <v>0.62923809523809515</v>
+        <v>0.77923809523809517</v>
       </c>
       <c r="E37">
-        <v>0.6032142857142857</v>
+        <v>0.75321428571428573</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.67441428571428585</v>
+        <v>0.82441428571428588</v>
       </c>
       <c r="B38">
-        <v>0.65100000000000002</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="C38">
-        <v>0.62549999999999994</v>
+        <v>0.77549999999999997</v>
       </c>
       <c r="D38">
-        <v>0.63042857142857145</v>
+        <v>0.78042857142857147</v>
       </c>
       <c r="E38">
-        <v>0.60366071428571422</v>
+        <v>0.75366071428571424</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.67551142857142865</v>
+        <v>0.82551142857142867</v>
       </c>
       <c r="B39">
-        <v>0.65266666666666651</v>
+        <v>0.80266666666666653</v>
       </c>
       <c r="C39">
-        <v>0.62633333333333319</v>
+        <v>0.77633333333333321</v>
       </c>
       <c r="D39">
-        <v>0.63161904761904752</v>
+        <v>0.78161904761904755</v>
       </c>
       <c r="E39">
-        <v>0.60392857142857137</v>
+        <v>0.75392857142857139</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.67644400000000016</v>
+        <v>0.82644400000000018</v>
       </c>
       <c r="B40">
-        <v>0.65436666666666676</v>
+        <v>0.80436666666666679</v>
       </c>
       <c r="C40">
-        <v>0.62718333333333343</v>
+        <v>0.77718333333333345</v>
       </c>
       <c r="D40">
-        <v>0.63283333333333336</v>
+        <v>0.78283333333333338</v>
       </c>
       <c r="E40">
-        <v>0.60415624999999995</v>
+        <v>0.75415624999999997</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.6773582857142858</v>
+        <v>0.82735828571428582</v>
       </c>
       <c r="B41">
-        <v>0.65603333333333336</v>
+        <v>0.80603333333333338</v>
       </c>
       <c r="C41">
-        <v>0.62801666666666667</v>
+        <v>0.77801666666666669</v>
       </c>
       <c r="D41">
-        <v>0.63402380952380955</v>
+        <v>0.78402380952380957</v>
       </c>
       <c r="E41">
-        <v>0.60437946428571432</v>
+        <v>0.75437946428571434</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.67827257142857145</v>
+        <v>0.82827257142857147</v>
       </c>
       <c r="B42">
-        <v>0.65770000000000006</v>
+        <v>0.80770000000000008</v>
       </c>
       <c r="C42">
-        <v>0.62885000000000002</v>
+        <v>0.77885000000000004</v>
       </c>
       <c r="D42">
-        <v>0.63521428571428573</v>
+        <v>0.78521428571428575</v>
       </c>
       <c r="E42">
-        <v>0.60460267857142846</v>
+        <v>0.75460267857142849</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.67916857142857145</v>
+        <v>0.82916857142857148</v>
       </c>
       <c r="B43">
-        <v>0.65933333333333333</v>
+        <v>0.80933333333333335</v>
       </c>
       <c r="C43">
-        <v>0.6296666666666666</v>
+        <v>0.77966666666666662</v>
       </c>
       <c r="D43">
-        <v>0.63638095238095238</v>
+        <v>0.7863809523809524</v>
       </c>
       <c r="E43">
-        <v>0.60482142857142851</v>
+        <v>0.75482142857142853</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.67994800000000011</v>
+        <v>0.82994800000000013</v>
       </c>
       <c r="B44">
-        <v>0.66101666666666659</v>
+        <v>0.81101666666666661</v>
       </c>
       <c r="C44">
-        <v>0.63050833333333323</v>
+        <v>0.78050833333333325</v>
       </c>
       <c r="D44">
-        <v>0.63758333333333328</v>
+        <v>0.7875833333333333</v>
       </c>
       <c r="E44">
-        <v>0.60501171874999993</v>
+        <v>0.75501171874999995</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.6801788571428572</v>
+        <v>0.83017885714285722</v>
       </c>
       <c r="B45">
-        <v>0.66270000000000007</v>
+        <v>0.81270000000000009</v>
       </c>
       <c r="C45">
-        <v>0.63135000000000008</v>
+        <v>0.7813500000000001</v>
       </c>
       <c r="D45">
-        <v>0.63878571428571429</v>
+        <v>0.78878571428571431</v>
       </c>
       <c r="E45">
-        <v>0.60506808035714288</v>
+        <v>0.7550680803571429</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.6804097142857144</v>
+        <v>0.83040971428571442</v>
       </c>
       <c r="B46">
-        <v>0.66438333333333333</v>
+        <v>0.81438333333333335</v>
       </c>
       <c r="C46">
-        <v>0.63219166666666671</v>
+        <v>0.78219166666666673</v>
       </c>
       <c r="D46">
-        <v>0.63998809523809519</v>
+        <v>0.78998809523809521</v>
       </c>
       <c r="E46">
-        <v>0.60512444196428561</v>
+        <v>0.75512444196428563</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.68063828571428586</v>
+        <v>0.83063828571428588</v>
       </c>
       <c r="B47">
-        <v>0.66604999999999992</v>
+        <v>0.81604999999999994</v>
       </c>
       <c r="C47">
-        <v>0.63302499999999995</v>
+        <v>0.78302499999999997</v>
       </c>
       <c r="D47">
-        <v>0.64117857142857138</v>
+        <v>0.7911785714285714</v>
       </c>
       <c r="E47">
-        <v>0.60518024553571426</v>
+        <v>0.75518024553571428</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.68087142857142868</v>
+        <v>0.83087142857142871</v>
       </c>
       <c r="B48">
-        <v>0.66774999999999995</v>
+        <v>0.81774999999999998</v>
       </c>
       <c r="C48">
-        <v>0.63387499999999997</v>
+        <v>0.78387499999999999</v>
       </c>
       <c r="D48">
-        <v>0.6423928571428571</v>
+        <v>0.79239285714285712</v>
       </c>
       <c r="E48">
-        <v>0.60523716517857129</v>
+        <v>0.75523716517857131</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.68110228571428577</v>
+        <v>0.83110228571428579</v>
       </c>
       <c r="B49">
-        <v>0.66843333333333299</v>
+        <v>0.81843333333333301</v>
       </c>
       <c r="C49">
-        <v>0.6347166666666666</v>
+        <v>0.78471666666666662</v>
       </c>
       <c r="D49">
-        <v>0.64359523809523811</v>
+        <v>0.79359523809523813</v>
       </c>
       <c r="E49">
-        <v>0.60529352678571424</v>
+        <v>0.75529352678571426</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.68151810285714232</v>
+        <v>0.83151810285714234</v>
       </c>
       <c r="B50">
-        <v>0.66913333333333302</v>
+        <v>0.81913333333333305</v>
       </c>
       <c r="C50">
-        <v>0.63556666666666661</v>
+        <v>0.78556666666666664</v>
       </c>
       <c r="D50">
-        <v>0.64480952380952383</v>
+        <v>0.79480952380952385</v>
       </c>
       <c r="E50">
-        <v>0.60535044642857139</v>
+        <v>0.75535044642857141</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +4182,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G51">
-        <f t="shared" ref="G19:G52" si="1">((A51-0.66)*0.8)+0.66</f>
+        <f t="shared" ref="G51:G52" si="1">((A51-0.66)*0.8)+0.66</f>
         <v>0.13200000000000001</v>
       </c>
     </row>
